--- a/SeiaOrg.xlsx
+++ b/SeiaOrg.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d651ccd468905d1c/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d651ccd468905d1c/Documents/1FinalP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4119311D-F73E-48A9-BD7C-086516F65293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4119311D-F73E-48A9-BD7C-086516F65293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F9C3D32-A4FF-4070-B010-68BD2AACFBD0}"/>
   <bookViews>
     <workbookView xWindow="44880" yWindow="4230" windowWidth="29040" windowHeight="15840" xr2:uid="{9752FD2C-B991-4026-8247-D35B1DE28FC0}"/>
   </bookViews>
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>State</t>
   </si>
@@ -145,9 +145,6 @@
     <t>ITC</t>
   </si>
   <si>
-    <t>*ITC, Investment Tax Solar Credit credit seia.org</t>
-  </si>
-  <si>
     <t>Solar Rankings</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
   </si>
   <si>
     <t>Projected Ranks</t>
-  </si>
-  <si>
-    <t>** Solar by state seia.org</t>
   </si>
 </sst>
 </file>
@@ -563,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B22E332-4DC1-47AC-8095-5081680453BB}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -589,28 +583,28 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -739,16 +733,6 @@
       </c>
       <c r="J5">
         <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
